--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
-    <sheet name="lagou" sheetId="2" r:id="rId2"/>
+    <sheet name="zhihu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>casename</t>
   </si>
@@ -26,10 +26,10 @@
     <t>caseRunFlag</t>
   </si>
   <si>
-    <t>lagou</t>
-  </si>
-  <si>
-    <t>测试拉勾网</t>
+    <t>zhihu</t>
+  </si>
+  <si>
+    <t>测试知乎</t>
   </si>
   <si>
     <t>y</t>
@@ -50,51 +50,28 @@
     <t>expect</t>
   </si>
   <si>
-    <t>测试拉勾网搜索</t>
-  </si>
-  <si>
-    <t>https://www.lagou.com/jobs/positionAjax.json?city=%E6%9D%AD%E5%B7%9E&amp;needAddtionalResult=false</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>lagou_001</t>
-  </si>
-  <si>
-    <t>lagouexpect_001</t>
-  </si>
-  <si>
-    <r>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="系统字体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>切换</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.lagou.com/message/newMessageList.json</t>
-  </si>
-  <si>
-    <t>lagou_002</t>
-  </si>
-  <si>
-    <t>lagouexpect_002</t>
+    <t>测试知乎搜索python</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/search</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>zhihu_001</t>
+  </si>
+  <si>
+    <t>测试知乎搜索selenium</t>
+  </si>
+  <si>
+    <t>zhihu_002</t>
+  </si>
+  <si>
+    <t>zhihu_003</t>
+  </si>
+  <si>
+    <t>zhihu_004</t>
   </si>
 </sst>
 </file>
@@ -102,12 +79,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,52 +107,51 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +165,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -197,6 +180,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -205,15 +189,60 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,52 +250,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +264,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,169 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +467,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,15 +502,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,21 +542,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -577,168 +560,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1049,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1082,29 +1062,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1112,58 +1092,58 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="22.1696428571429" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.8214285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.14285714285714" style="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6607142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.1696428571429" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:7">
+    <row r="2" ht="17" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1172,39 +1152,75 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" ht="17" spans="1:7">
+    <row r="3" ht="17" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="17" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.lagou.com/jobs/positionAjax.json?city=%E6%9D%AD%E5%B7%9E&amp;needAddtionalResult=false"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.lagou.com/message/newMessageList.json"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.zhihu.com/search" tooltip="https://www.zhihu.com/search"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.zhihu.com/search" tooltip="https://www.zhihu.com/search"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://www.zhihu.com/search" tooltip="https://www.zhihu.com/search"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://www.zhihu.com/search" tooltip="https://www.zhihu.com/search"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>